--- a/Readme/testUsabilidad.xlsx
+++ b/Readme/testUsabilidad.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carol\Desktop\Laboratoria\Bootcamp\SCL016-memory-match-game\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58650CC4-DD37-444E-BB6B-32AD9D4DEA57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,9 +74,6 @@
     <t>Jugó 3 veces, fácil de usar, pero no leyó los mensajes de Geeky</t>
   </si>
   <si>
-    <t>En persona - sin instrucciones - observación</t>
-  </si>
-  <si>
     <t>Completa juego, pero no accede a pagina de instrucciones, tampoco lee mensajes e Geeky</t>
   </si>
   <si>
@@ -97,12 +93,15 @@
   </si>
   <si>
     <t>Manifiesta que boton de cerrar en gamepage es pequeño y dificil de encontrar</t>
+  </si>
+  <si>
+    <t>Persona 39 - sin instrucciones - observación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +201,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,18 +224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,44 +504,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -556,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -576,12 +575,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -596,56 +595,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
   </sheetData>
